--- a/sentiment_data/Finance_Dic.xlsx
+++ b/sentiment_data/Finance_Dic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyudu/Documents/TD-Rotman-FinHub-TDMDAL-Hackathon/sentiment_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liguolun/Desktop/TD data competition/TD-Rotman-FinHub-TDMDAL-Hackathon/sentiment_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B999E9-41B3-8940-95F9-EC85C00F48E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69511FC-1020-134E-B15E-2B5EBF57C024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{3ED77A03-FA71-46F5-8BBB-5EE8BE48D962}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{3ED77A03-FA71-46F5-8BBB-5EE8BE48D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,178 +33,237 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
-    <t xml:space="preserve">Saving </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dividend </t>
-  </si>
-  <si>
-    <t xml:space="preserve">short-term </t>
+    <t xml:space="preserve">decrease </t>
+  </si>
+  <si>
+    <t>Negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short-term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>demand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>litigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankruptcy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deferred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incorrect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volatility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relentless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>just</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deficit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dividend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>growth</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">decrease </t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">margin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">long-term </t>
-  </si>
-  <si>
-    <t xml:space="preserve">litigation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">continued </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long-term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continued</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>acquisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquired </t>
-  </si>
-  <si>
-    <t xml:space="preserve">beyond </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beyond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>billion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possible </t>
-  </si>
-  <si>
-    <t xml:space="preserve">deferred </t>
-  </si>
-  <si>
-    <t xml:space="preserve">delivered </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>innovation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guidance </t>
-  </si>
-  <si>
-    <t>miss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incorrect </t>
-  </si>
-  <si>
-    <t xml:space="preserve">risks </t>
-  </si>
-  <si>
-    <t>decline</t>
-  </si>
-  <si>
-    <t>downturn</t>
-  </si>
-  <si>
-    <t>volatility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>top</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">challenging </t>
-  </si>
-  <si>
-    <t xml:space="preserve">relentless </t>
-  </si>
-  <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doubt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">broken </t>
-  </si>
-  <si>
-    <t xml:space="preserve">issues </t>
-  </si>
-  <si>
-    <t xml:space="preserve">satisfied </t>
-  </si>
-  <si>
-    <t xml:space="preserve">strong </t>
-  </si>
-  <si>
-    <t xml:space="preserve">incredible </t>
-  </si>
-  <si>
-    <t xml:space="preserve">limited </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satisfied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incredible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>consumer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>transform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salesforce </t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative </t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liability </t>
-  </si>
-  <si>
-    <t xml:space="preserve">technology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bankruptcy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">profit </t>
-  </si>
-  <si>
-    <t>deficit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesforce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -248,7 +307,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,25 +606,25 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -573,207 +632,208 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sentiment_data/Finance_Dic.xlsx
+++ b/sentiment_data/Finance_Dic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liguolun/Desktop/TD data competition/TD-Rotman-FinHub-TDMDAL-Hackathon/sentiment_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69511FC-1020-134E-B15E-2B5EBF57C024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4715406-4534-7548-A93A-9BE629369108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{3ED77A03-FA71-46F5-8BBB-5EE8BE48D962}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{3ED77A03-FA71-46F5-8BBB-5EE8BE48D962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,6 @@
     <t xml:space="preserve">decrease </t>
   </si>
   <si>
-    <t>Negative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>short-term</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,18 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Positive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saving</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dividend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>growth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +229,22 @@
   </si>
   <si>
     <t>profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dividend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +606,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -616,49 +616,49 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -666,170 +666,170 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
